--- a/rma_export.xlsx
+++ b/rma_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,264 +436,112 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>token_no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>month</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>date_of_issue</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>si_client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Device Serial Number</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>delivered_material_date</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>issues_observed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>emd_observation</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>solutions</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>replacement_dc_no</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>tested_by_messung_engineer</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>rma</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>faulty_device_status</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>remark</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>device_status</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>r1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>r2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>r3</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>token_no</t>
-        </is>
-      </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
           <t>customer_email</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>28-05-25</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Lunkad-SKY</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Pune</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Client</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MES-DO-24R</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>KKBK9087</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>14-01-22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>MES-RMA-444</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>MES-RMA-444</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>chaudharipayal2002@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>28-05-25</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lunkad-SKY</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Pune</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Client</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MES-DO-24R</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>KKBK9087</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>14-01-22</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Heating Issue</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>MES-RMA-445</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>MES-RMA-445</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>payal.chaudhari@messung.com</t>
         </is>
       </c>
     </row>
